--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/9_Ardahan_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/9_Ardahan_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B9BD469-8B45-4C2E-9D21-754277C13C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{974ED284-5DC4-4A23-90BF-B1027E5F4103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{553697C0-BE36-46DF-B45F-FFE5E0329779}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{344C1B7F-DE84-4FD9-93D0-5CCE2B1F0865}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="151" r:id="rId1"/>
@@ -792,15 +792,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{ABCDB1F3-EE88-43BF-A74A-907C1141F0B1}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D72AB345-4A50-40B2-9B09-C44F49F4D102}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{E83B5488-A730-4BED-8821-DEEB51127549}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EDFD589B-212F-4690-9B6B-FA678F33793D}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{A364632E-6429-43E4-8511-108DE3DF64AC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{1DCA2844-0190-43F9-A413-CE29ED7B7670}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{2F1CCD76-8E31-4C6D-A0BE-2DCD45F151ED}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{2733E6F7-E51C-49FC-91D7-4565A2696F2D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{01509971-39CF-4721-8E72-E812C6FFCD8B}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{792E3F6D-A510-4B6E-AFB8-263A347ED677}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{68DA6C0E-D41E-465C-A291-2AB1AA766005}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{60745F2F-17D4-4178-976C-CC026B16F4C5}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{DFC902D4-3195-4A93-9A00-EC7757392592}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{47ADA501-BC1F-4484-B444-6C659EF773D6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F4C60A61-4DF6-4603-BE2E-994C1B38C37C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{E2C45CA8-F001-4235-8EDE-2BF5B8AC85BC}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{7CE4F25C-D607-4A7A-B2F4-70BF8D251FF6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{0B0D5926-76CD-48A3-9091-CC1505C5A68D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1170,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974BFCC2-819F-488D-9412-16BB0651BBCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83BE9AE-952B-498A-A5E6-91CACD67EB86}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2419,7 +2419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AF59F1-D4CA-40E7-9B15-B7438A83561A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2F901A-2B93-4925-BF6F-A5FD980D9954}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3668,7 +3668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6930F151-3CBF-4B14-9821-7CFF103D5F7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E37D51-12C3-4763-A099-760FE80C5D2B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4925,7 +4925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD53F06-E2A4-4184-BC4C-8D082F5BEAB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D8498F-E5BE-4FEF-B05F-7A5F630D84C1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6180,7 +6180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586C9162-ECFD-4145-823C-1BBDD18F6184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32131BA-2D78-417C-AD16-2401F1A83230}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7421,7 +7421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D13B951-944E-4EB9-91B0-72AAD08243AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE4EE1C-8308-49D6-A04A-06EB479DC1DB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
